--- a/pandas/groupby_example.xlsx
+++ b/pandas/groupby_example.xlsx
@@ -1,38 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangg\Google Drive\Project_Mine\(Infrun)강의제작\금융데이터 분석을 위한 판다스\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\proyj\workspace\python\pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B11ED7-2654-4FC5-BBF4-695EF8DBB98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33C9FAF-CEAC-4A7D-BD63-2183D93DCB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5520" windowWidth="38640" windowHeight="21120" xr2:uid="{045EF75D-8B4C-4410-9651-873E84740B4D}"/>
+    <workbookView xWindow="-14172" yWindow="-26028" windowWidth="45360" windowHeight="26136" xr2:uid="{045EF75D-8B4C-4410-9651-873E84740B4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>Sector</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +127,10 @@
   </si>
   <si>
     <t>PER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,12 +501,12 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="F6" s="1"/>
@@ -544,15 +541,18 @@
       <c r="W6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -562,8 +562,11 @@
       <c r="D8">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -573,8 +576,11 @@
       <c r="D9">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -585,7 +591,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -596,7 +602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -607,7 +613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -618,7 +624,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -629,7 +635,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -640,7 +646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -651,7 +657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -662,7 +668,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>16</v>
       </c>
@@ -673,7 +679,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>17</v>
       </c>
@@ -684,7 +690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>18</v>
       </c>
@@ -695,7 +701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -706,7 +712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -717,7 +723,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -728,7 +734,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -739,7 +745,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>23</v>
       </c>
@@ -750,7 +756,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>24</v>
       </c>
@@ -761,7 +767,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -772,7 +778,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>26</v>
       </c>
@@ -783,7 +789,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>27</v>
       </c>
@@ -794,7 +800,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>28</v>
       </c>
@@ -805,7 +811,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>29</v>
       </c>
@@ -816,7 +822,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>30</v>
       </c>
